--- a/biology/Botanique/Acanthocereus_tetragonus/Acanthocereus_tetragonus.xlsx
+++ b/biology/Botanique/Acanthocereus_tetragonus/Acanthocereus_tetragonus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthocereus tetragonus est une espèce de cactus de la famille des Cactaceae et originaire d'Amérique. Il a d'abord été décrit en 1753 par Carl von Linné (1707-1778) sous le basionyme de Cactus tetragonus puis déplacé en 1938 sous le genre Acanthocereus par le botaniste et zoologiste vénézuélien Pieter Wagenaar Hummelinck (d) (1907-2003).
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tiges, qui ont entre trois et cinq côtes, sont légèrement ailées et peuvent atteindre 3 m de hauteur. Elles sont généralement arquées et peuvent s'enraciner au contact du sol. Les épines, rigides, sont regroupées en faisceaux de cinq à huit, et mesurent environ 4 cm de longueur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges, qui ont entre trois et cinq côtes, sont légèrement ailées et peuvent atteindre 3 m de hauteur. Elles sont généralement arquées et peuvent s'enraciner au contact du sol. Les épines, rigides, sont regroupées en faisceaux de cinq à huit, et mesurent environ 4 cm de longueur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est envahissante en Nouvelle-Calédonie, où elle aurait été introduite soit au temps de la rhumerie (XIXe siècle)[3], soit en 1982[4]. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est envahissante en Nouvelle-Calédonie, où elle aurait été introduite soit au temps de la rhumerie (XIXe siècle), soit en 1982. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Agriculture et horticulture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est commercialisée en Amérique, comme plante ornementale, sous le nom de "Fairy Castle Cactus" (« Cactus Château de fées »).
 </t>
